--- a/src/test/resources/testData/CucumberBook.xlsx
+++ b/src/test/resources/testData/CucumberBook.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca49bfa601df6549/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelf\IdeaProjects\CucumberFrameworkBatch12\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DF7F7A-DB96-4FAA-845B-8AAC3D97F8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319E785-F7F0-4431-935B-CEF34E87D461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27780" yWindow="-2250" windowWidth="21600" windowHeight="11295" xr2:uid="{5CA86674-5DDC-4598-B287-955DB48545B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -67,10 +67,22 @@
     <t>Else</t>
   </si>
   <si>
-    <t>Ushyh</t>
-  </si>
-  <si>
     <t>C:\Users\joelf\Downloads\imageTest.jpg</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>Castilioni</t>
+  </si>
+  <si>
+    <t>SME123</t>
+  </si>
+  <si>
+    <t>EMS321</t>
+  </si>
+  <si>
+    <t>PMC456</t>
   </si>
 </sst>
 </file>
@@ -433,15 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18317BF3-4056-4DEE-A76A-1DEF7456F7AE}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -475,10 +488,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -494,10 +507,41 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{297515E3-7E3C-44B0-B43C-8D8960E17276}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{B32C00BC-82C8-4D12-B7E3-F6F3109B111E}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{6DD15DDD-CA42-41E3-B848-F7FF82DDE488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
